--- a/myproject/static/api.xlsx
+++ b/myproject/static/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Work/Learning/python_training/create_testcase_ai/myproject/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C6A91B-FA87-D34F-8CD3-D6773A94E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFF1C74-0FB5-754F-B5D0-51F566533AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="920" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,41 +168,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -241,41 +206,41 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,7 +675,7 @@
   <dimension ref="A1:F978"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -806,142 +771,142 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
